--- a/Experimental_Results/结果对比.xlsx
+++ b/Experimental_Results/结果对比.xlsx
@@ -16,11 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9" uniqueCount="9">
-  <si>
-    <t>baseline</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="20" uniqueCount="20">
   <si>
     <t>Bleu_1</t>
   </si>
@@ -43,7 +39,55 @@
     <t>CIDEr</t>
   </si>
   <si>
-    <t>baseline_attention</t>
+    <t>nlc+glstm</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>nlc+glstm+attention</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>nlc+glstm+attention+mrcnn</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>nlc</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>convskai_layer5</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>mrcnn_layer3</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>convskai_layer16</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>convskai_layer30</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>mse</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>sim</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>cvae</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>c_dcgan</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>c_wgan</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -395,15 +439,15 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:H3"/>
+  <dimension ref="A1:H27"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A4" sqref="A4"/>
+      <selection activeCell="A29" sqref="A29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <cols>
-    <col min="1" max="1" width="20.125" customWidth="1"/>
+    <col min="1" max="1" width="27.375" customWidth="1"/>
     <col min="2" max="2" width="13.375" customWidth="1"/>
     <col min="3" max="3" width="12.125" customWidth="1"/>
     <col min="4" max="4" width="15.625" customWidth="1"/>
@@ -415,77 +459,274 @@
   <sheetData>
     <row r="1" spans="1:8" x14ac:dyDescent="0.15">
       <c r="B1" t="s">
+        <v>0</v>
+      </c>
+      <c r="C1" t="s">
         <v>1</v>
       </c>
-      <c r="C1" t="s">
+      <c r="D1" t="s">
         <v>2</v>
       </c>
-      <c r="D1" t="s">
+      <c r="E1" t="s">
         <v>3</v>
       </c>
-      <c r="E1" t="s">
+      <c r="F1" t="s">
         <v>4</v>
       </c>
-      <c r="F1" t="s">
+      <c r="G1" t="s">
         <v>5</v>
       </c>
-      <c r="G1" t="s">
+      <c r="H1" t="s">
         <v>6</v>
-      </c>
-      <c r="H1" t="s">
-        <v>7</v>
       </c>
     </row>
     <row r="2" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A2" t="s">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="B2">
-        <v>0.82100700000000004</v>
+        <v>0.81155699999999997</v>
       </c>
       <c r="C2">
-        <v>0.76864900000000003</v>
+        <v>0.745062</v>
       </c>
       <c r="D2">
-        <v>0.71111599999999997</v>
+        <v>0.67883199999999999</v>
       </c>
       <c r="E2">
-        <v>0.64465899999999998</v>
+        <v>0.606097</v>
       </c>
       <c r="F2">
-        <v>0.51041199999999998</v>
+        <v>0.477321</v>
       </c>
       <c r="G2">
-        <v>0.77315500000000004</v>
+        <v>0.73295699999999997</v>
       </c>
       <c r="H2">
-        <v>3.554942</v>
+        <v>2.550122</v>
       </c>
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A3" t="s">
+        <v>7</v>
+      </c>
+      <c r="B3">
+        <v>0.82100700000000004</v>
+      </c>
+      <c r="C3">
+        <v>0.76864900000000003</v>
+      </c>
+      <c r="D3">
+        <v>0.71111599999999997</v>
+      </c>
+      <c r="E3">
+        <v>0.64465899999999998</v>
+      </c>
+      <c r="F3">
+        <v>0.51041199999999998</v>
+      </c>
+      <c r="G3">
+        <v>0.77315500000000004</v>
+      </c>
+      <c r="H3">
+        <v>3.554942</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A4" t="s">
         <v>8</v>
       </c>
-      <c r="B3">
+      <c r="B4">
         <v>0.83591000000000004</v>
       </c>
-      <c r="C3">
+      <c r="C4">
         <v>0.77966599999999997</v>
       </c>
-      <c r="D3">
+      <c r="D4">
         <v>0.719001</v>
       </c>
-      <c r="E3">
+      <c r="E4">
         <v>0.65010299999999999</v>
       </c>
-      <c r="F3">
+      <c r="F4">
         <v>0.50700100000000003</v>
       </c>
-      <c r="G3">
+      <c r="G4">
         <v>0.77689900000000001</v>
       </c>
-      <c r="H3">
+      <c r="H4">
         <v>3.2575129999999999</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A5" t="s">
+        <v>9</v>
+      </c>
+      <c r="B5">
+        <v>0.84369700000000003</v>
+      </c>
+      <c r="C5">
+        <v>0.79312400000000005</v>
+      </c>
+      <c r="D5">
+        <v>0.73278600000000005</v>
+      </c>
+      <c r="E5">
+        <v>0.66245100000000001</v>
+      </c>
+      <c r="F5">
+        <v>0.51084600000000002</v>
+      </c>
+      <c r="G5">
+        <v>0.78357699999999997</v>
+      </c>
+      <c r="H5">
+        <v>3.8438080000000001</v>
+      </c>
+    </row>
+    <row r="9" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A9" t="s">
+        <v>11</v>
+      </c>
+      <c r="B9">
+        <v>0.83923800000000004</v>
+      </c>
+      <c r="C9">
+        <v>0.78137900000000005</v>
+      </c>
+      <c r="D9">
+        <v>0.72206199999999998</v>
+      </c>
+      <c r="E9">
+        <v>0.65484100000000001</v>
+      </c>
+      <c r="F9">
+        <v>0.50766199999999995</v>
+      </c>
+      <c r="G9">
+        <v>0.76877099999999998</v>
+      </c>
+      <c r="H9">
+        <v>3.5888040000000001</v>
+      </c>
+    </row>
+    <row r="10" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A10" t="s">
+        <v>13</v>
+      </c>
+      <c r="B10">
+        <v>0.86120799999999997</v>
+      </c>
+      <c r="C10">
+        <v>0.80562299999999998</v>
+      </c>
+      <c r="D10">
+        <v>0.74015200000000003</v>
+      </c>
+      <c r="E10">
+        <v>0.663435</v>
+      </c>
+      <c r="F10">
+        <v>0.50087400000000004</v>
+      </c>
+      <c r="G10">
+        <v>0.75830200000000003</v>
+      </c>
+      <c r="H10">
+        <v>3.4593240000000001</v>
+      </c>
+    </row>
+    <row r="11" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A11" t="s">
+        <v>14</v>
+      </c>
+      <c r="B11">
+        <v>0.85039399999999998</v>
+      </c>
+      <c r="C11">
+        <v>0.78912099999999996</v>
+      </c>
+      <c r="D11">
+        <v>0.72080299999999997</v>
+      </c>
+      <c r="E11">
+        <v>0.64225500000000002</v>
+      </c>
+      <c r="F11">
+        <v>0.48576200000000003</v>
+      </c>
+      <c r="G11">
+        <v>0.75467300000000004</v>
+      </c>
+      <c r="H11">
+        <v>3.080651</v>
+      </c>
+    </row>
+    <row r="15" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A15" t="s">
+        <v>12</v>
+      </c>
+      <c r="B15">
+        <v>0.81946300000000005</v>
+      </c>
+      <c r="C15">
+        <v>0.75977700000000004</v>
+      </c>
+      <c r="D15">
+        <v>0.69731299999999996</v>
+      </c>
+      <c r="E15">
+        <v>0.62720299999999995</v>
+      </c>
+      <c r="F15">
+        <v>0.49907499999999999</v>
+      </c>
+      <c r="G15">
+        <v>0.75969399999999998</v>
+      </c>
+      <c r="H15">
+        <v>3.4828420000000002</v>
+      </c>
+    </row>
+    <row r="24" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="B24" t="s">
+        <v>15</v>
+      </c>
+      <c r="C24" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="25" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A25" t="s">
+        <v>17</v>
+      </c>
+      <c r="B25">
+        <v>151.5</v>
+      </c>
+      <c r="C25">
+        <v>0.99929999999999997</v>
+      </c>
+    </row>
+    <row r="26" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A26" t="s">
+        <v>18</v>
+      </c>
+      <c r="B26">
+        <v>292.10000000000002</v>
+      </c>
+      <c r="C26">
+        <v>0.99880000000000002</v>
+      </c>
+    </row>
+    <row r="27" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A27" t="s">
+        <v>19</v>
+      </c>
+      <c r="B27">
+        <v>363.9</v>
+      </c>
+      <c r="C27">
+        <v>0.99850000000000005</v>
       </c>
     </row>
   </sheetData>
